--- a/data/trans_dic/P43E_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P43E_R-Dificultad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8063144670403616</v>
+        <v>0.8064431627414738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9013294573687169</v>
+        <v>0.9000973460363251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8257528878495204</v>
+        <v>0.8229495397483223</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8611187858159723</v>
+        <v>0.8618222327746171</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9401142673812906</v>
+        <v>0.938996621431772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9026005974590305</v>
+        <v>0.9046404070109594</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8431566236824862</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8441846013917481</v>
+        <v>0.8441846013917483</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7443786755845756</v>
+        <v>0.7421104833556044</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8115086626333919</v>
+        <v>0.8108852856222201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8100078797381806</v>
+        <v>0.8112368363515237</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8055788658213567</v>
+        <v>0.8080560876038801</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8735709424441024</v>
+        <v>0.8695708195615116</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8712323507368687</v>
+        <v>0.8727560108948039</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7105946114538825</v>
+        <v>0.711118495942343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7527025940157189</v>
+        <v>0.7533013006728385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7224566608907417</v>
+        <v>0.7172031957890952</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7915458830671526</v>
+        <v>0.7901253034405945</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8294337262966116</v>
+        <v>0.8324912311273394</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7874909681911447</v>
+        <v>0.7857428112219363</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.6960639259023098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5943863010937119</v>
+        <v>0.594386301093712</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5667697810884889</v>
+        <v>0.5595219950565946</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6417906250348311</v>
+        <v>0.644458440867556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5542153033256534</v>
+        <v>0.5544330392471916</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6827211209595031</v>
+        <v>0.6820281163987532</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7473104906316638</v>
+        <v>0.7437160917884241</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6365240561240253</v>
+        <v>0.6361975233271751</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.8361821929164589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7536133394276302</v>
+        <v>0.7536133394276301</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7510215507442074</v>
+        <v>0.7497139510243346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8174720015642312</v>
+        <v>0.8186087536405092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7337247271653637</v>
+        <v>0.7354390216260793</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7871476972218729</v>
+        <v>0.7858925148093462</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8523694750066657</v>
+        <v>0.8511659373166971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7710580459091159</v>
+        <v>0.772619799206779</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>581810</v>
+        <v>581903</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>657980</v>
+        <v>657080</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>201726</v>
+        <v>201041</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>621355</v>
+        <v>621862</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>686293</v>
+        <v>685477</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>220499</v>
+        <v>220997</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>518842</v>
+        <v>517261</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>498934</v>
+        <v>498551</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>354908</v>
+        <v>355447</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>561499</v>
+        <v>563226</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>537092</v>
+        <v>534632</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>381734</v>
+        <v>382402</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>369443</v>
+        <v>369715</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>345898</v>
+        <v>346173</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>342999</v>
+        <v>340505</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>411530</v>
+        <v>410792</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>381159</v>
+        <v>382564</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>373876</v>
+        <v>373046</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>169949</v>
+        <v>167775</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>216654</v>
+        <v>217554</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>240241</v>
+        <v>240335</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>204717</v>
+        <v>204510</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>252275</v>
+        <v>251061</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>275920</v>
+        <v>275778</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1681043</v>
+        <v>1678116</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1750984</v>
+        <v>1753419</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1167132</v>
+        <v>1169859</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1761906</v>
+        <v>1759096</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1825733</v>
+        <v>1823155</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1226518</v>
+        <v>1229002</v>
       </c>
     </row>
     <row r="24">
